--- a/ListOfDogs.xlsx
+++ b/ListOfDogs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sue\Bootcamp\PRACTICE\20190107\reactpractice\reactpractice - Copy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sue\Bootcamp\HOMEWORK\clicky-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A43A8A0E-FD69-490C-A71F-5E70AD097C1E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3EE2ED05-61ED-4E43-A10B-3F6927919F77}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11925" xr2:uid="{47ECFB31-1D0A-4311-8402-CE15E6B597CD}"/>
   </bookViews>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52B47EE-A9C0-4BA0-85DF-4F3146898365}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
